--- a/datasets/dividends/dohod.ru/rate_for_each_ticker.xlsx
+++ b/datasets/dividends/dohod.ru/rate_for_each_ticker.xlsx
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>10.09%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/afks</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/rosn</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>ROSN</t>
         </is>
       </c>
     </row>
@@ -496,27 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>8.02%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mtlrp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/alrs</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MTLRP</t>
+          <t>ALRS</t>
         </is>
       </c>
     </row>
@@ -526,27 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11.85%</t>
+          <t>11.03%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>70.3%</t>
+          <t>26.46%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/eutr</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/msrs</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>EUTR</t>
+          <t>MSRS</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>33.72%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/gmkn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sgzh</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>SGZH</t>
         </is>
       </c>
     </row>
@@ -586,27 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.13%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26.46%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/msrs</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mvid</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MSRS</t>
+          <t>MVID</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8.15%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/moex</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/tgka</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>TGKA</t>
         </is>
       </c>
     </row>
@@ -646,27 +646,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13.52%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>44.81%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/lsrg</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mtlrp</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LSRG</t>
+          <t>MTLRP</t>
         </is>
       </c>
     </row>
@@ -676,27 +676,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>13.06%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>44.81%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mgtsp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/lsrg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MGTSP</t>
+          <t>LSRG</t>
         </is>
       </c>
     </row>
@@ -706,27 +706,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9.35%</t>
+          <t>8.28%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>47.28%</t>
+          <t>36.21%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/magn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/aqua</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>AQUA</t>
         </is>
       </c>
     </row>
@@ -736,27 +736,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>10.16%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>47.65%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mgts</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sber</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MGTS</t>
+          <t>SBER</t>
         </is>
       </c>
     </row>
@@ -766,27 +766,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8.12%</t>
+          <t>10.81%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>94.75%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/alrs</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/belu</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>BELU</t>
         </is>
       </c>
     </row>
@@ -796,27 +796,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6.06%</t>
+          <t>11.88%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>32.5%</t>
+          <t>128.22%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/prmb</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mtss</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>PRMB</t>
+          <t>MTSS</t>
         </is>
       </c>
     </row>
@@ -826,27 +826,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3.91%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>33.52%</t>
+          <t>30.55%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/kazt</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/smlt</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>KAZT</t>
+          <t>SMLT</t>
         </is>
       </c>
     </row>
@@ -856,27 +856,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9.07%</t>
+          <t>14.69%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>39.28%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrkv</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/zaym</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MRKV</t>
+          <t>ZAYM</t>
         </is>
       </c>
     </row>
@@ -886,27 +886,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8.16%</t>
+          <t>5.71%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>49.4%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/gche</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/hnfg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>GCHE</t>
+          <t>HNFG</t>
         </is>
       </c>
     </row>
@@ -926,17 +926,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/ogkb</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mgts</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>OGKB</t>
+          <t>MGTS</t>
         </is>
       </c>
     </row>
@@ -946,27 +946,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>7.45%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.62%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrks</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/nmtp</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MRKS</t>
+          <t>NMTP</t>
         </is>
       </c>
     </row>
@@ -976,27 +976,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5.16%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>63.79%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/elfv</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/msng</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ELFV</t>
+          <t>MSNG</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12.3%</t>
+          <t>11.5%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/bspb</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/tatnp</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>TATNP</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1036,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8.12%</t>
+          <t>7.91%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>46.14%</t>
+          <t>20.81%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/reni</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/bane</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>RENI</t>
+          <t>BANE</t>
         </is>
       </c>
     </row>
@@ -1066,27 +1066,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12.36%</t>
+          <t>6.71%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.19%</t>
+          <t>57.23%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/banep</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/rtkm</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>BANEP</t>
+          <t>RTKM</t>
         </is>
       </c>
     </row>
@@ -1096,27 +1096,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5.26%</t>
+          <t>1.86%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>15.18%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/bisvp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/cntlp</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BISVP</t>
+          <t>CNTLP</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.01%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>39.28%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrkz</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrkv</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MRKZ</t>
+          <t>MRKV</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3.15%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1166,17 +1166,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/tgkn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrku</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TGKN</t>
+          <t>MRKU</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1196,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/rual</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/hydr</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>HYDR</t>
         </is>
       </c>
     </row>
@@ -1216,27 +1216,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.99%</t>
+          <t>10.56%</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>43.75%</t>
+          <t>22.5%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/akrn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/agro</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AKRN</t>
+          <t>AGRO</t>
         </is>
       </c>
     </row>
@@ -1246,27 +1246,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9.7%</t>
+          <t>2.33%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/nvtk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/krknp</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>KRKNP</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1276,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2.69%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>30.55%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1291,12 +1291,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/smlt</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mtlr</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SMLT</t>
+          <t>MTLR</t>
         </is>
       </c>
     </row>
@@ -1306,27 +1306,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>5.31%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>35.46%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrkc</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/bisvp</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MRKC</t>
+          <t>BISVP</t>
         </is>
       </c>
     </row>
@@ -1336,27 +1336,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7.84%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>49.62%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/nmtp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/bspbp</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NMTP</t>
+          <t>BSPBP</t>
         </is>
       </c>
     </row>
@@ -1376,17 +1376,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/himcp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrks</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>HIMCP</t>
+          <t>MRKS</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5.11%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>63.79%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/msng</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/gltr</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MSNG</t>
+          <t>GLTR</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mvid</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/upro</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MVID</t>
+          <t>UPRO</t>
         </is>
       </c>
     </row>
@@ -1456,27 +1456,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2.14%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10.26%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sfin</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/tcsg</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>SFIN</t>
+          <t>TCSG</t>
         </is>
       </c>
     </row>
@@ -1486,27 +1486,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>12.35%</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/upro</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/bspb</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>UPRO</t>
+          <t>BSPB</t>
         </is>
       </c>
     </row>
@@ -1516,27 +1516,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3.17%</t>
+          <t>1.67%</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>25.52%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/selg</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/vsmo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>VSMO</t>
         </is>
       </c>
     </row>
@@ -1546,27 +1546,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>17.7%</t>
+          <t>1.35%</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>39.69%</t>
+          <t>107.15%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/nlmk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/astr</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>ASTR</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1576,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5.84%</t>
+          <t>9.31%</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/hnfg</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/irao</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>HNFG</t>
+          <t>IRAO</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1606,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>12.14%</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>4.19%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/rnft</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/banep</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>RNFT</t>
+          <t>BANEP</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1636,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10.35%</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>24.82%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/agro</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/svcb</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>AGRO</t>
+          <t>SVCB</t>
         </is>
       </c>
     </row>
@@ -1666,27 +1666,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7.61%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/rtkmp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/elfv</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>RTKMP</t>
+          <t>ELFV</t>
         </is>
       </c>
     </row>
@@ -1696,27 +1696,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20.11%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/fixp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/poly</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FIXP</t>
+          <t>POLY</t>
         </is>
       </c>
     </row>
@@ -1726,27 +1726,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8.88%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/leas</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/rual</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>LEAS</t>
+          <t>RUAL</t>
         </is>
       </c>
     </row>
@@ -1756,27 +1756,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>3.97%</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>47.19%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/ugld</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/nkhp</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>UGLD</t>
+          <t>NKHP</t>
         </is>
       </c>
     </row>
@@ -1786,27 +1786,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>14.1%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>89.02%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/chmf</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mbnk</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MBNK</t>
         </is>
       </c>
     </row>
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.29%</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>45.55%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1831,12 +1831,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/okey</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/cntl</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>OKEY</t>
+          <t>CNTL</t>
         </is>
       </c>
     </row>
@@ -1846,27 +1846,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7.16%</t>
+          <t>5.86%</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>53.91%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrku</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/kzos</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MRKU</t>
+          <t>KZOS</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10.06%</t>
+          <t>3.24%</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10.43%</t>
+          <t>25.52%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/lsngp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/selg</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>LSNGP</t>
+          <t>SELG</t>
         </is>
       </c>
     </row>
@@ -1906,27 +1906,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8.31%</t>
+          <t>1.73%</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>38.24%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/aqua</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/deli</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AQUA</t>
+          <t>DELI</t>
         </is>
       </c>
     </row>
@@ -1936,27 +1936,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>3.92%</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>33.52%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/krsbp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/kazt</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>KRSBP</t>
+          <t>KAZT</t>
         </is>
       </c>
     </row>
@@ -1966,27 +1966,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2.98%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>19.59%</t>
+          <t>9.29%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/kmaz</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/trnfp</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>KMAZ</t>
+          <t>TRNFP</t>
         </is>
       </c>
     </row>
@@ -1996,27 +1996,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2.38%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/wush</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/pikk</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>WUSH</t>
+          <t>PIKK</t>
         </is>
       </c>
     </row>
@@ -2026,27 +2026,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>1.41%</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>107.15%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/astr</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/lvhk</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ASTR</t>
+          <t>LVHK</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>45.55%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2071,12 +2071,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/cntl</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrkk</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CNTL</t>
+          <t>MRKK</t>
         </is>
       </c>
     </row>
@@ -2116,27 +2116,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>15.78%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>58.08%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/lkoh</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/hhru</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>HHRU</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2146,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5.33%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/avan</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrkz</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>AVAN</t>
+          <t>MRKZ</t>
         </is>
       </c>
     </row>
@@ -2176,27 +2176,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3.32%</t>
+          <t>3.05%</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16.6%</t>
+          <t>20.99%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/plzl</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/nknc</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PLZL</t>
+          <t>NKNC</t>
         </is>
       </c>
     </row>
@@ -2206,27 +2206,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2.33%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/krknp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/vtbr</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>KRKNP</t>
+          <t>VTBR</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.23%</t>
+          <t>1.22%</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2266,27 +2266,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6.79%</t>
+          <t>1.02%</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>81.53%</t>
+          <t>0.15%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/dias</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/kzosp</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>DIAS</t>
+          <t>KZOSP</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>9.11%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>56.83%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/svav</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/cbom</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SVAV</t>
+          <t>CBOM</t>
         </is>
       </c>
     </row>
@@ -2326,27 +2326,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10.83%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>94.75%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/belu</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/ugld</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>BELU</t>
+          <t>UGLD</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>9.29%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/trnfp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mgtsp</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>TRNFP</t>
+          <t>MGTSP</t>
         </is>
       </c>
     </row>
@@ -2386,27 +2386,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>11.24%</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>70.3%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/kzosp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/eutr</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>KZOSP</t>
+          <t>EUTR</t>
         </is>
       </c>
     </row>
@@ -2416,27 +2416,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6.74%</t>
+          <t>9.3%</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>64.98%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mdmg</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/nvtk</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MDMG</t>
+          <t>NVTK</t>
         </is>
       </c>
     </row>
@@ -2446,27 +2446,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5.75%</t>
+          <t>13.85%</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>89.02%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/ttlk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/chmf</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>TTLK</t>
+          <t>CHMF</t>
         </is>
       </c>
     </row>
@@ -2476,27 +2476,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2.25%</t>
+          <t>7.67%</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>18.21%</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/lsng</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/rtkmp</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>LSNG</t>
+          <t>RTKMP</t>
         </is>
       </c>
     </row>
@@ -2506,27 +2506,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.36%</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrky</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/wush</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MRKY</t>
+          <t>WUSH</t>
         </is>
       </c>
     </row>
@@ -2536,27 +2536,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7.46%</t>
+          <t>11.17%</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>35.14%</t>
+          <t>58.94%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/krsb</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/tatn</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>KRSB</t>
+          <t>TATN</t>
         </is>
       </c>
     </row>
@@ -2566,27 +2566,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6.6%</t>
+          <t>3.05%</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>57.23%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/rtkm</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/tgkn</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>RTKM</t>
+          <t>TGKN</t>
         </is>
       </c>
     </row>
@@ -2596,27 +2596,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6.74%</t>
+          <t>2.13%</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>24.82%</t>
+          <t>10.26%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/svcb</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sfin</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SVCB</t>
+          <t>SFIN</t>
         </is>
       </c>
     </row>
@@ -2626,27 +2626,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.31%</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>18.21%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/gltr</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/lsng</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>GLTR</t>
+          <t>LSNG</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7.87%</t>
+          <t>1.99%</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>20.81%</t>
+          <t>43.75%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2671,12 +2671,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/bane</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/akrn</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>BANE</t>
+          <t>AKRN</t>
         </is>
       </c>
     </row>
@@ -2686,27 +2686,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.68%</t>
+          <t>3.94%</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/vsmo</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/kaztp</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>VSMO</t>
+          <t>KAZTP</t>
         </is>
       </c>
     </row>
@@ -2716,27 +2716,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.79%</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.28%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/tcsg</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sngs</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>TCSG</t>
+          <t>SNGS</t>
         </is>
       </c>
     </row>
@@ -2776,27 +2776,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>11.36%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>51.7%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sibn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/okey</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>OKEY</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>8.29%</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/hydr</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/trmk</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>TRMK</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2851,12 +2851,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/deli</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/aflt</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>DELI</t>
+          <t>AFLT</t>
         </is>
       </c>
     </row>
@@ -2866,27 +2866,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8.18%</t>
+          <t>10.14%</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>2.21%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/trmk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sberp</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>TRMK</t>
+          <t>SBERP</t>
         </is>
       </c>
     </row>
@@ -2896,27 +2896,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>9.36%</t>
+          <t>9.31%</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>49.97%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/irao</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/magn</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>IRAO</t>
+          <t>MAGN</t>
         </is>
       </c>
     </row>
@@ -2926,27 +2926,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>18.29%</t>
+          <t>15.5%</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>58.08%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sngsp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/lkoh</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>SNGSP</t>
+          <t>LKOH</t>
         </is>
       </c>
     </row>
@@ -2956,27 +2956,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>13.24%</t>
+          <t>3.97%</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>31.21%</t>
+          <t>2.85%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrkp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/nkncp</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>MRKP</t>
+          <t>NKNCP</t>
         </is>
       </c>
     </row>
@@ -2986,27 +2986,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>9.81%</t>
+          <t>9.5%</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33.72%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mbnk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/gmkn</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>MBNK</t>
+          <t>GMKN</t>
         </is>
       </c>
     </row>
@@ -3016,27 +3016,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3.12%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>20.99%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/nknc</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/gazp</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>NKNC</t>
+          <t>GAZP</t>
         </is>
       </c>
     </row>
@@ -3046,27 +3046,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>10.29%</t>
+          <t>6.02%</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>32.5%</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/rosn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/prmb</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>PRMB</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>10.76%</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>71.53%</t>
+          <t>10.43%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/phor</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/lsngp</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>PHOR</t>
+          <t>LSNGP</t>
         </is>
       </c>
     </row>
@@ -3106,27 +3106,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>11.64%</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>82.37%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/gazp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mgnt</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>MGNT</t>
         </is>
       </c>
     </row>
@@ -3136,27 +3136,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>11.28%</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>51.7%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mtlr</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sibn</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>SIBN</t>
         </is>
       </c>
     </row>
@@ -3166,27 +3166,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>10.19%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>47.65%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sber</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/rnft</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>RNFT</t>
         </is>
       </c>
     </row>
@@ -3196,27 +3196,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>46.14%</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/cbom</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/reni</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>CBOM</t>
+          <t>RENI</t>
         </is>
       </c>
     </row>
@@ -3226,27 +3226,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3.69%</t>
+          <t>5.6%</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>45.02%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/posi</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/ttlk</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>POSI</t>
+          <t>TTLK</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.22%</t>
+          <t>1.24%</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3286,27 +3286,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.85%</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>19.59%</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/vtbr</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/kmaz</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>KMAZ</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3316,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>11.25%</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>35.46%</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrkk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrkc</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>MRKK</t>
+          <t>MRKC</t>
         </is>
       </c>
     </row>
@@ -3346,27 +3346,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2.28%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sngs</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/fees</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>SNGS</t>
+          <t>FEES</t>
         </is>
       </c>
     </row>
@@ -3376,27 +3376,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>11.32%</t>
+          <t>5.34%</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>59.73%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/tatn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/avan</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>AVAN</t>
         </is>
       </c>
     </row>
@@ -3406,27 +3406,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>14.47%</t>
+          <t>3.24%</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>16.6%</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/zaym</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/plzl</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ZAYM</t>
+          <t>PLZL</t>
         </is>
       </c>
     </row>
@@ -3436,27 +3436,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>8.21%</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.4%</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/fees</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/gche</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>GCHE</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>17.51%</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/poly</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/gemc</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>POLY</t>
+          <t>GEMC</t>
         </is>
       </c>
     </row>
@@ -3496,27 +3496,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>15.88%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>58.99%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/flot</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrky</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>FLOT</t>
+          <t>MRKY</t>
         </is>
       </c>
     </row>
@@ -3526,27 +3526,27 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>6.02%</t>
+          <t>17.88%</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>53.91%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/kzos</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sngsp</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>KZOS</t>
+          <t>SNGSP</t>
         </is>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.38%</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>75.38%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sgzh</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/phor</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>SGZH</t>
+          <t>PHOR</t>
         </is>
       </c>
     </row>
@@ -3586,27 +3586,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>9.06%</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>40.13%</t>
+          <t>56.83%</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/lvhk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/svav</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>LVHK</t>
+          <t>SVAV</t>
         </is>
       </c>
     </row>
@@ -3616,27 +3616,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>11.62%</t>
+          <t>5.46%</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4.04%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/tatnp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/fixp</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>TATNP</t>
+          <t>FIXP</t>
         </is>
       </c>
     </row>
@@ -3646,27 +3646,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>4.06%</t>
+          <t>7.48%</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>47.08%</t>
+          <t>35.14%</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/nkhp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/krsb</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>NKHP</t>
+          <t>KRSB</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.13%</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3686,17 +3686,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/aflt</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/afks</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>AFLT</t>
+          <t>AFKS</t>
         </is>
       </c>
     </row>
@@ -3706,27 +3706,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>14.69%</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/bspbp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrkp</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>BSPBP</t>
+          <t>MRKP</t>
         </is>
       </c>
     </row>
@@ -3746,17 +3746,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/pikk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/himcp</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>PIKK</t>
+          <t>HIMCP</t>
         </is>
       </c>
     </row>
@@ -3766,27 +3766,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>12.08%</t>
+          <t>17.51%</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>128.22%</t>
+          <t>39.69%</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mtss</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/nlmk</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>MTSS</t>
+          <t>NLMK</t>
         </is>
       </c>
     </row>
@@ -3796,27 +3796,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1.85%</t>
+          <t>6.91%</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>15.18%</t>
+          <t>81.53%</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/cntlp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/dias</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>CNTLP</t>
+          <t>DIAS</t>
         </is>
       </c>
     </row>
@@ -3826,27 +3826,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>17.91%</t>
+          <t>15.43%</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>58.99%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/gemc</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/flot</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>GEMC</t>
+          <t>FLOT</t>
         </is>
       </c>
     </row>
@@ -3856,27 +3856,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>10.17%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2.21%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sberp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/krsbp</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>KRSBP</t>
         </is>
       </c>
     </row>
@@ -3886,27 +3886,27 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3.87%</t>
+          <t>7.9%</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/kaztp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/moex</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>KAZTP</t>
+          <t>MOEX</t>
         </is>
       </c>
     </row>
@@ -3926,17 +3926,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/hhru</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/ogkb</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>HHRU</t>
+          <t>OGKB</t>
         </is>
       </c>
     </row>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.75%</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>64.98%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3961,12 +3961,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/tgka</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mdmg</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>TGKA</t>
+          <t>MDMG</t>
         </is>
       </c>
     </row>
@@ -3976,12 +3976,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>12.11%</t>
+          <t>3.66%</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>82.37%</t>
+          <t>45.02%</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3991,12 +3991,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mgnt</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/posi</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>MGNT</t>
+          <t>POSI</t>
         </is>
       </c>
     </row>
@@ -4006,27 +4006,27 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>4.03%</t>
+          <t>8.91%</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2.85%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/nkncp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/leas</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>NKNCP</t>
+          <t>LEAS</t>
         </is>
       </c>
     </row>

--- a/datasets/dividends/dohod.ru/rate_for_each_ticker.xlsx
+++ b/datasets/dividends/dohod.ru/rate_for_each_ticker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10.09%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/rosn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/rnft</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>RNFT</t>
         </is>
       </c>
     </row>
@@ -496,27 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8.02%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/alrs</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sgzh</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>SGZH</t>
         </is>
       </c>
     </row>
@@ -526,27 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11.03%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26.46%</t>
+          <t>57.23%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/msrs</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/rtkm</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MSRS</t>
+          <t>RTKM</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.68%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sgzh</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/hydr</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SGZH</t>
+          <t>HYDR</t>
         </is>
       </c>
     </row>
@@ -586,27 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>43.75%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mvid</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/akrn</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MVID</t>
+          <t>AKRN</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.83%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>23.53%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/tgka</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/vsmo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TGKA</t>
+          <t>VSMO</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mtlrp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/cbom</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MTLRP</t>
+          <t>CBOM</t>
         </is>
       </c>
     </row>
@@ -676,27 +676,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13.06%</t>
+          <t>5.7%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>44.81%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/lsrg</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/ttlk</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>LSRG</t>
+          <t>TTLK</t>
         </is>
       </c>
     </row>
@@ -706,27 +706,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8.28%</t>
+          <t>12.11%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>36.21%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/aqua</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/rosn</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AQUA</t>
+          <t>ROSN</t>
         </is>
       </c>
     </row>
@@ -736,27 +736,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10.16%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>47.65%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sber</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/upro</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>UPRO</t>
         </is>
       </c>
     </row>
@@ -766,27 +766,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>3.43%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>94.75%</t>
+          <t>25.52%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/belu</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/selg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BELU</t>
+          <t>SELG</t>
         </is>
       </c>
     </row>
@@ -796,27 +796,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11.88%</t>
+          <t>9.5%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>128.22%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mtss</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/irao</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MTSS</t>
+          <t>IRAO</t>
         </is>
       </c>
     </row>
@@ -826,27 +826,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>1.59%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30.55%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/smlt</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/cntlp</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SMLT</t>
+          <t>CNTLP</t>
         </is>
       </c>
     </row>
@@ -856,27 +856,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>14.69%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/zaym</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mtlr</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ZAYM</t>
+          <t>MTLR</t>
         </is>
       </c>
     </row>
@@ -886,27 +886,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.71%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/hnfg</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mtlrp</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>HNFG</t>
+          <t>MTLRP</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>19.64%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mgts</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/gemc</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MGTS</t>
+          <t>GEMC</t>
         </is>
       </c>
     </row>
@@ -946,27 +946,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7.45%</t>
+          <t>8.01%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>49.62%</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/nmtp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/rtkmp</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NMTP</t>
+          <t>RTKMP</t>
         </is>
       </c>
     </row>
@@ -976,27 +976,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5.16%</t>
+          <t>3.14%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>63.79%</t>
+          <t>16.62%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/msng</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/plzl</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MSNG</t>
+          <t>PLZL</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1006,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/tatnp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/fees</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TATNP</t>
+          <t>FEES</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7.91%</t>
+          <t>12.92%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20.81%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/bane</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrkc</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BANE</t>
+          <t>MRKC</t>
         </is>
       </c>
     </row>
@@ -1066,27 +1066,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6.71%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>57.23%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/rtkm</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrkk</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>RTKM</t>
+          <t>MRKK</t>
         </is>
       </c>
     </row>
@@ -1096,27 +1096,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.86%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15.18%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/cntlp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrky</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CNTLP</t>
+          <t>MRKY</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9.01%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>39.28%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrkv</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/pikk</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MRKV</t>
+          <t>PIKK</t>
         </is>
       </c>
     </row>
@@ -1156,27 +1156,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>9.78%</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>33.81%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrku</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/gmkn</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MRKU</t>
+          <t>GMKN</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>3.77%</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>44.99%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/hydr</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/posi</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HYDR</t>
+          <t>POSI</t>
         </is>
       </c>
     </row>
@@ -1216,27 +1216,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10.56%</t>
+          <t>8.58%</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>22.5%</t>
+          <t>2.45%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/agro</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/nkncp</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AGRO</t>
+          <t>NKNCP</t>
         </is>
       </c>
     </row>
@@ -1246,27 +1246,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2.33%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/krknp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/hhru</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>KRKNP</t>
+          <t>HHRU</t>
         </is>
       </c>
     </row>
@@ -1276,27 +1276,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>10.97%</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mtlr</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/reni</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MTLR</t>
+          <t>RENI</t>
         </is>
       </c>
     </row>
@@ -1306,27 +1306,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5.31%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/bisvp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/elfv</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>BISVP</t>
+          <t>ELFV</t>
         </is>
       </c>
     </row>
@@ -1336,27 +1336,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.78%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/bspbp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/tcsg</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>BSPBP</t>
+          <t>TCSG</t>
         </is>
       </c>
     </row>
@@ -1366,27 +1366,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.72%</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>49.92%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrks</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/gazp</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MRKS</t>
+          <t>GAZP</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.16%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/gltr</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/cntl</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>GLTR</t>
+          <t>CNTL</t>
         </is>
       </c>
     </row>
@@ -1426,27 +1426,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>14.16%</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>71.63%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/upro</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/magn</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>UPRO</t>
+          <t>MAGN</t>
         </is>
       </c>
     </row>
@@ -1456,27 +1456,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>13.67%</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/tcsg</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/msrs</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TCSG</t>
+          <t>MSRS</t>
         </is>
       </c>
     </row>
@@ -1486,27 +1486,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>12.35%</t>
+          <t>7.78%</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>85.21%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/bspb</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/dias</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>DIAS</t>
         </is>
       </c>
     </row>
@@ -1516,27 +1516,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.67%</t>
+          <t>8.95%</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>23.53%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/vsmo</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/trmk</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>VSMO</t>
+          <t>TRMK</t>
         </is>
       </c>
     </row>
@@ -1546,27 +1546,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>107.15%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/astr</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/himcp</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ASTR</t>
+          <t>HIMCP</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1576,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9.31%</t>
+          <t>16.72%</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>99.84%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/irao</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mgnt</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>IRAO</t>
+          <t>MGNT</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1606,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12.14%</t>
+          <t>13.38%</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.19%</t>
+          <t>65.66%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/banep</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/tatn</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BANEP</t>
+          <t>TATN</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1636,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>10.69%</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>24.82%</t>
+          <t>22.5%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/svcb</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/agro</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SVCB</t>
+          <t>AGRO</t>
         </is>
       </c>
     </row>
@@ -1666,27 +1666,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>7.87%</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>1.47%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/elfv</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/bisvp</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ELFV</t>
+          <t>BISVP</t>
         </is>
       </c>
     </row>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>3.47%</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/poly</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/ugld</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>POLY</t>
+          <t>UGLD</t>
         </is>
       </c>
     </row>
@@ -1726,27 +1726,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.06%</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/rual</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/hnfg</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>HNFG</t>
         </is>
       </c>
     </row>
@@ -1756,27 +1756,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3.97%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>47.19%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/nkhp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/okey</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NKHP</t>
+          <t>OKEY</t>
         </is>
       </c>
     </row>
@@ -1786,27 +1786,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>14.73%</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>3.74%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mbnk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/banep</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MBNK</t>
+          <t>BANEP</t>
         </is>
       </c>
     </row>
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.29%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>45.55%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1831,12 +1831,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/cntl</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/poly</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CNTL</t>
+          <t>POLY</t>
         </is>
       </c>
     </row>
@@ -1846,27 +1846,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5.86%</t>
+          <t>11.49%</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>53.91%</t>
+          <t>51.25%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/kzos</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sibn</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>KZOS</t>
+          <t>SIBN</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>17.66%</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>25.52%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/selg</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/ogkb</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>OGKB</t>
         </is>
       </c>
     </row>
@@ -1906,27 +1906,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.73%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>16.67%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/deli</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/alrs</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>DELI</t>
+          <t>ALRS</t>
         </is>
       </c>
     </row>
@@ -1936,27 +1936,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3.92%</t>
+          <t>2.65%</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>33.52%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/kazt</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/wush</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>KAZT</t>
+          <t>WUSH</t>
         </is>
       </c>
     </row>
@@ -1966,27 +1966,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>9.29%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/trnfp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/svav</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>TRNFP</t>
+          <t>SVAV</t>
         </is>
       </c>
     </row>
@@ -1996,27 +1996,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.69%</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>64.98%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/pikk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mdmg</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>PIKK</t>
+          <t>MDMG</t>
         </is>
       </c>
     </row>
@@ -2026,27 +2026,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1.41%</t>
+          <t>12.64%</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>9.29%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/lvhk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/trnfp</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>LVHK</t>
+          <t>TRNFP</t>
         </is>
       </c>
     </row>
@@ -2056,27 +2056,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.29%</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrkk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/fixp</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MRKK</t>
+          <t>FIXP</t>
         </is>
       </c>
     </row>
@@ -2086,27 +2086,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.06%</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/rasp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/abrd</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>RASP</t>
+          <t>ABRD</t>
         </is>
       </c>
     </row>
@@ -2131,12 +2131,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/hhru</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/rual</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>HHRU</t>
+          <t>RUAL</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrkz</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mgts</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MRKZ</t>
+          <t>MGTS</t>
         </is>
       </c>
     </row>
@@ -2176,27 +2176,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3.05%</t>
+          <t>7.29%</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>20.99%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/nknc</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/krsbp</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NKNC</t>
+          <t>KRSBP</t>
         </is>
       </c>
     </row>
@@ -2206,27 +2206,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6.44%</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>24.8%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/vtbr</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/svcb</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>VTBR</t>
+          <t>SVCB</t>
         </is>
       </c>
     </row>
@@ -2236,27 +2236,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1.22%</t>
+          <t>7.36%</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>25.37%</t>
+          <t>35.14%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/abrd</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/krsb</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ABRD</t>
+          <t>KRSB</t>
         </is>
       </c>
     </row>
@@ -2266,27 +2266,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>14.45%</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/kzosp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrkp</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>KZOSP</t>
+          <t>MRKP</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/cbom</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/gltr</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CBOM</t>
+          <t>GLTR</t>
         </is>
       </c>
     </row>
@@ -2326,27 +2326,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>8.88%</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/ugld</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/leas</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>UGLD</t>
+          <t>LEAS</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mgtsp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/enpg</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MGTSP</t>
+          <t>ENPG</t>
         </is>
       </c>
     </row>
@@ -2386,27 +2386,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>11.24%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>70.3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/eutr</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/five</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>EUTR</t>
+          <t>FIVE</t>
         </is>
       </c>
     </row>
@@ -2416,27 +2416,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>9.3%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>16.67%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/nvtk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/deli</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>DELI</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>13.85%</t>
+          <t>18.35%</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>89.02%</t>
+          <t>39.69%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/chmf</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/nlmk</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>NLMK</t>
         </is>
       </c>
     </row>
@@ -2476,27 +2476,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7.67%</t>
+          <t>8.13%</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/rtkmp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/moex</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>RTKMP</t>
+          <t>MOEX</t>
         </is>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2.36%</t>
+          <t>11.05%</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2516,17 +2516,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/wush</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mbnk</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>WUSH</t>
+          <t>MBNK</t>
         </is>
       </c>
     </row>
@@ -2536,27 +2536,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>11.17%</t>
+          <t>2.63%</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>58.94%</t>
+          <t>10%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/tatn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/krknp</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>KRKNP</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3.05%</t>
+          <t>3.35%</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2.13%</t>
+          <t>9.19%</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>10.26%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sfin</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/eutr</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>SFIN</t>
+          <t>EUTR</t>
         </is>
       </c>
     </row>
@@ -2626,27 +2626,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2.31%</t>
+          <t>10.76%</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>18.21%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/lsng</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/nmtp</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>LSNG</t>
+          <t>NMTP</t>
         </is>
       </c>
     </row>
@@ -2656,27 +2656,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1.99%</t>
+          <t>6.35%</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>43.75%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/akrn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrkv</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>AKRN</t>
+          <t>MRKV</t>
         </is>
       </c>
     </row>
@@ -2686,27 +2686,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3.94%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0.53%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/kaztp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mvid</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>KAZTP</t>
+          <t>MVID</t>
         </is>
       </c>
     </row>
@@ -2716,27 +2716,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2.79%</t>
+          <t>4.71%</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2.28%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sngs</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/kmaz</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SNGS</t>
+          <t>KMAZ</t>
         </is>
       </c>
     </row>
@@ -2746,27 +2746,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>7.44%</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/enpg</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrku</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ENPG</t>
+          <t>MRKU</t>
         </is>
       </c>
     </row>
@@ -2776,27 +2776,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>4.18%</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/okey</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/msng</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>OKEY</t>
+          <t>MSNG</t>
         </is>
       </c>
     </row>
@@ -2806,27 +2806,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>8.29%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/trmk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/vtbr</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>TRMK</t>
+          <t>VTBR</t>
         </is>
       </c>
     </row>
@@ -2836,27 +2836,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>15.76%</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>127.6%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/aflt</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mtss</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>AFLT</t>
+          <t>MTSS</t>
         </is>
       </c>
     </row>
@@ -2866,27 +2866,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>10.14%</t>
+          <t>15.39%</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2.21%</t>
+          <t>138.22%</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sberp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/etln</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>SBERP</t>
+          <t>ETLN</t>
         </is>
       </c>
     </row>
@@ -2896,27 +2896,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>9.31%</t>
+          <t>1.02%</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>49.97%</t>
+          <t>0.11%</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/magn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/kzosp</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>KZOSP</t>
         </is>
       </c>
     </row>
@@ -2926,27 +2926,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>15.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>58.08%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/lkoh</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/aflt</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>AFLT</t>
         </is>
       </c>
     </row>
@@ -2956,27 +2956,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3.97%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2.85%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/nkncp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/rasp</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NKNCP</t>
+          <t>RASP</t>
         </is>
       </c>
     </row>
@@ -2986,27 +2986,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>9.5%</t>
+          <t>1.67%</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>33.72%</t>
+          <t>21.3%</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/gmkn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/elmt</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>ELMT</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3026,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/gazp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/tgka</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>TGKA</t>
         </is>
       </c>
     </row>
@@ -3046,27 +3046,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>6.02%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>32.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/prmb</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mgtsp</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>PRMB</t>
+          <t>MGTSP</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>10.76%</t>
+          <t>8.36%</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>10.43%</t>
+          <t>49.4%</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3091,12 +3091,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/lsngp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/gche</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>LSNGP</t>
+          <t>GCHE</t>
         </is>
       </c>
     </row>
@@ -3106,27 +3106,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>11.64%</t>
+          <t>6.54%</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>82.37%</t>
+          <t>18.05%</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mgnt</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/nknc</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>MGNT</t>
+          <t>NKNC</t>
         </is>
       </c>
     </row>
@@ -3136,27 +3136,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>11.28%</t>
+          <t>9.75%</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>51.7%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sibn</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/nvtk</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>NVTK</t>
         </is>
       </c>
     </row>
@@ -3166,27 +3166,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>9.28%</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>21.26%</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/rnft</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/bane</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>RNFT</t>
+          <t>BANE</t>
         </is>
       </c>
     </row>
@@ -3196,27 +3196,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>1.56%</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>46.14%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/reni</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/lvhk</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>RENI</t>
+          <t>LVHK</t>
         </is>
       </c>
     </row>
@@ -3226,27 +3226,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>5.6%</t>
+          <t>5.33%</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/ttlk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/avan</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>TTLK</t>
+          <t>AVAN</t>
         </is>
       </c>
     </row>
@@ -3256,27 +3256,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.24%</t>
+          <t>2.67%</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/elmt</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/lsng</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ELMT</t>
+          <t>LSNG</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2.85%</t>
+          <t>17.81%</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>19.59%</t>
+          <t>58.99%</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/kmaz</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/flot</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>KMAZ</t>
+          <t>FLOT</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3316,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>11.25%</t>
+          <t>12.64%</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>35.46%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrkc</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/bspb</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>MRKC</t>
+          <t>BSPB</t>
         </is>
       </c>
     </row>
@@ -3346,27 +3346,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>13.17%</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>44.81%</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/fees</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/lsrg</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>LSRG</t>
         </is>
       </c>
     </row>
@@ -3376,27 +3376,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5.34%</t>
+          <t>10.82%</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>74.44%</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/avan</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/chmf</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>AVAN</t>
+          <t>CHMF</t>
         </is>
       </c>
     </row>
@@ -3406,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3.24%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>16.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3421,12 +3421,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/plzl</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/lent</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>PLZL</t>
+          <t>LENT</t>
         </is>
       </c>
     </row>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>8.21%</t>
+          <t>6.29%</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>49.4%</t>
+          <t>32.5%</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/gche</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/prmb</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>GCHE</t>
+          <t>PRMB</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>17.51%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/gemc</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrkz</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>GEMC</t>
+          <t>MRKZ</t>
         </is>
       </c>
     </row>
@@ -3496,27 +3496,27 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>11.75%</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>94.75%</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrky</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/belu</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>MRKY</t>
+          <t>BELU</t>
         </is>
       </c>
     </row>
@@ -3526,12 +3526,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>17.88%</t>
+          <t>10.26%</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>7.1%</t>
+          <t>10.19%</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3541,12 +3541,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/sngsp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/lsngp</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>SNGSP</t>
+          <t>LSNGP</t>
         </is>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>9.38%</t>
+          <t>7.58%</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>75.38%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/phor</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/kzos</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>PHOR</t>
+          <t>KZOS</t>
         </is>
       </c>
     </row>
@@ -3586,27 +3586,27 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>9.06%</t>
+          <t>16.4%</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>56.83%</t>
+          <t>58.08%</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/svav</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/lkoh</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>SVAV</t>
+          <t>LKOH</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5.46%</t>
+          <t>16.1%</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/fixp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/zaym</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>FIXP</t>
+          <t>ZAYM</t>
         </is>
       </c>
     </row>
@@ -3646,27 +3646,27 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>8.86%</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>35.14%</t>
+          <t>68.74%</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/krsb</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/phor</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>KRSB</t>
+          <t>PHOR</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2.13%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3686,17 +3686,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/afks</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/mrks</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>AFKS</t>
+          <t>MRKS</t>
         </is>
       </c>
     </row>
@@ -3706,27 +3706,27 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>14.69%</t>
+          <t>0.81%</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mrkp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/bspbp</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>MRKP</t>
+          <t>BSPBP</t>
         </is>
       </c>
     </row>
@@ -3736,27 +3736,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>4.24%</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/himcp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/nkhp</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>HIMCP</t>
+          <t>NKHP</t>
         </is>
       </c>
     </row>
@@ -3766,27 +3766,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>17.51%</t>
+          <t>12.51%</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>39.69%</t>
+          <t>2.21%</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/nlmk</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sberp</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>SBERP</t>
         </is>
       </c>
     </row>
@@ -3796,27 +3796,27 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>6.91%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>81.53%</t>
+          <t>20.52%</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/dias</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/smlt</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>DIAS</t>
+          <t>SMLT</t>
         </is>
       </c>
     </row>
@@ -3826,27 +3826,27 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>15.43%</t>
+          <t>24.41%</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>58.99%</t>
+          <t>7.1%</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/flot</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sngsp</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>FLOT</t>
+          <t>SNGSP</t>
         </is>
       </c>
     </row>
@@ -3856,27 +3856,27 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>3.34%</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>82.42%</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/krsbp</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/afks</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>KRSBP</t>
+          <t>AFKS</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>0.96%</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3896,17 +3896,17 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/moex</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/astr</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>MOEX</t>
+          <t>ASTR</t>
         </is>
       </c>
     </row>
@@ -3916,27 +3916,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>13.6%</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>4.45%</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/ogkb</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/tatnp</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>OGKB</t>
+          <t>TATNP</t>
         </is>
       </c>
     </row>
@@ -3946,27 +3946,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>6.75%</t>
+          <t>12.5%</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>64.98%</t>
+          <t>47.79%</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/mdmg</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sber</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>MDMG</t>
+          <t>SBER</t>
         </is>
       </c>
     </row>
@@ -3976,27 +3976,27 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3.66%</t>
+          <t>4.05%</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>45.02%</t>
+          <t>0.53%</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/posi</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/kaztp</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>POSI</t>
+          <t>KAZTP</t>
         </is>
       </c>
     </row>
@@ -4006,27 +4006,117 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>8.91%</t>
+          <t>2.95%</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>2.28%</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://www.dohod.ru/ik/analytics/dividend/leas</t>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sngs</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>LEAS</t>
+          <t>SNGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>4.16%</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>33.52%</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>https://www.dohod.ru/ik/analytics/dividend/kazt</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>KAZT</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1.86%</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>10.26%</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>https://www.dohod.ru/ik/analytics/dividend/sfin</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>SFIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>11.98%</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>49.74%</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>https://www.dohod.ru/ik/analytics/dividend/aqua</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>AQUA</t>
         </is>
       </c>
     </row>
